--- a/Template.xlsx
+++ b/Template.xlsx
@@ -3,25 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Nitz\eclipse-workspace\src Backup for 2043\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342450F9-319D-4B4D-995B-712169CB0814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062681C-8BFB-41E1-93AA-0E2DDE6220FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2475" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2820" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equivelents" sheetId="2" r:id="rId1"/>
     <sheet name="Areas" sheetId="3" r:id="rId2"/>
+    <sheet name="GLOBAL DIST." r:id="rId6" sheetId="4"/>
+    <sheet name="RAW" r:id="rId7" sheetId="5"/>
+    <sheet name="MASTERLIST" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="535">
   <si>
     <t>CMPE2412</t>
   </si>
@@ -570,12 +573,1069 @@
   </si>
   <si>
     <t>SOCIETY</t>
+  </si>
+  <si>
+    <t>Global Distributions</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Fails</t>
+  </si>
+  <si>
+    <t>Marginals</t>
+  </si>
+  <si>
+    <t>Meets</t>
+  </si>
+  <si>
+    <t>Exceeds</t>
+  </si>
+  <si>
+    <t>Year Distribution</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>Course Location Distribution</t>
+  </si>
+  <si>
+    <t>Fredericton</t>
+  </si>
+  <si>
+    <t>Saint John</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Course Number</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Marginal</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>ADM1213</t>
+  </si>
+  <si>
+    <t>FINANCIAL ACCOUNTING</t>
+  </si>
+  <si>
+    <t>ADM1313</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF MARKETING</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONAL BEHAVIOUR</t>
+  </si>
+  <si>
+    <t>ADM3123</t>
+  </si>
+  <si>
+    <t>BUSINESS LAW I</t>
+  </si>
+  <si>
+    <t>AESL1011</t>
+  </si>
+  <si>
+    <t>ENGL.AS 2ND LANG.FOR ACAD.PUR</t>
+  </si>
+  <si>
+    <t>INTRO SOC &amp; CULTURAL ANTH</t>
+  </si>
+  <si>
+    <t>ANTH1303</t>
+  </si>
+  <si>
+    <t>INTRO TO ANTHROP'L. ARCH'Y.</t>
+  </si>
+  <si>
+    <t>MECHANICS I</t>
+  </si>
+  <si>
+    <t>MECHANICS II</t>
+  </si>
+  <si>
+    <t>APSC1081</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO MECHANICS</t>
+  </si>
+  <si>
+    <t>APSC1082</t>
+  </si>
+  <si>
+    <t>MECHANICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>APSC1085</t>
+  </si>
+  <si>
+    <t>APPLIED SCIENCE LABORATORY</t>
+  </si>
+  <si>
+    <t>SURVEY OF 19TH &amp; 20TH C PHYSIC</t>
+  </si>
+  <si>
+    <t>SURV.OF 19TH &amp; 20TH C.PHYS.LAB</t>
+  </si>
+  <si>
+    <t>BIOL PRINCIPLES I</t>
+  </si>
+  <si>
+    <t>BIOL1105</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL PRIN. I</t>
+  </si>
+  <si>
+    <t>TOPICS IN BIOL. I: LIFE</t>
+  </si>
+  <si>
+    <t>CE3403</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>ENGINEERING ECONOMY</t>
+  </si>
+  <si>
+    <t>CHE2501</t>
+  </si>
+  <si>
+    <t>GENERAL MATERIALS SCIENCE</t>
+  </si>
+  <si>
+    <t>CHE2506</t>
+  </si>
+  <si>
+    <t>MATERIALS SCIENCE LABORATORY</t>
+  </si>
+  <si>
+    <t>CHE5264</t>
+  </si>
+  <si>
+    <t>OIL SANDS TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>CHE5313</t>
+  </si>
+  <si>
+    <t>ENERGY AND THE ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>CHEM1001</t>
+  </si>
+  <si>
+    <t>GENERAL CHEMISTRY I</t>
+  </si>
+  <si>
+    <t>CHEM1872</t>
+  </si>
+  <si>
+    <t>GENERAL PHYSICAL &amp; INORGANIC</t>
+  </si>
+  <si>
+    <t>CHEM1877</t>
+  </si>
+  <si>
+    <t>GEN PHYSICAL &amp; INORGAINC LAB</t>
+  </si>
+  <si>
+    <t>GEN CHEM/PHYSICAL &amp; INORGANIC</t>
+  </si>
+  <si>
+    <t>GENERAL APPLIED CHEMISTRY LAB</t>
+  </si>
+  <si>
+    <t>INTRO COMPUTER PROGRAMMING</t>
+  </si>
+  <si>
+    <t>DATA STRUCTURES &amp; ALGORITHMS</t>
+  </si>
+  <si>
+    <t>CS1073</t>
+  </si>
+  <si>
+    <t>INTRO COMP PROG IN JAVA</t>
+  </si>
+  <si>
+    <t>CS1083</t>
+  </si>
+  <si>
+    <t>COMP SC CONCEPTS/JAVA</t>
+  </si>
+  <si>
+    <t>CS2033</t>
+  </si>
+  <si>
+    <t>SOFTWARE DESIGN FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>CS3853</t>
+  </si>
+  <si>
+    <t>COMP ARCHITECTURE &amp; ORGANIZAT</t>
+  </si>
+  <si>
+    <t>ELECTRICITY &amp; MAGNETISM</t>
+  </si>
+  <si>
+    <t>DIGITAL SYSTEMS</t>
+  </si>
+  <si>
+    <t>SIMULATION &amp; ENG. ANALYSIS</t>
+  </si>
+  <si>
+    <t>ELECTRIC CIRCUITS</t>
+  </si>
+  <si>
+    <t>CIRCUITS AND SYSTEMS</t>
+  </si>
+  <si>
+    <t>ELECTRICAL &amp; CMPE ENG DESIGN</t>
+  </si>
+  <si>
+    <t>ELECTRONICS I</t>
+  </si>
+  <si>
+    <t>ELECTRONICS II</t>
+  </si>
+  <si>
+    <t>COMPUTER ORGANIZATION</t>
+  </si>
+  <si>
+    <t>EMBEDDED SYSTEMS DESIGN</t>
+  </si>
+  <si>
+    <t>COMPUTER ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>SYSTEMS AND CONTROL</t>
+  </si>
+  <si>
+    <t>SIGNALS</t>
+  </si>
+  <si>
+    <t>ELECTRIC MACHINES &amp; DESIGN</t>
+  </si>
+  <si>
+    <t>DATA COMMUNIC'NS.&amp; NETWORKING</t>
+  </si>
+  <si>
+    <t>ELECTROMAGNETICS I</t>
+  </si>
+  <si>
+    <t>ELECTROMAGNETICS II</t>
+  </si>
+  <si>
+    <t>ELECT &amp; CMPE DESIGN PROJECT</t>
+  </si>
+  <si>
+    <t>INSTRUMENTATION DESIGN</t>
+  </si>
+  <si>
+    <t>REAL TIME SYSTEMS</t>
+  </si>
+  <si>
+    <t>ECE4261</t>
+  </si>
+  <si>
+    <t>DIGITAL SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>VLSI SYSTEMS DESIGN</t>
+  </si>
+  <si>
+    <t>ECE4333</t>
+  </si>
+  <si>
+    <t>ROBOTICS</t>
+  </si>
+  <si>
+    <t>SAFETY-CRITICAL SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS SYSTEMS</t>
+  </si>
+  <si>
+    <t>DIGITAL SIGNAL PROCESSING I</t>
+  </si>
+  <si>
+    <t>POWER SYSTEM ANALYSIS</t>
+  </si>
+  <si>
+    <t>POWER ELECTRONICS</t>
+  </si>
+  <si>
+    <t>COMM'NS.NETWORK ENGINEERING</t>
+  </si>
+  <si>
+    <t>MICROWAVE ENGINEERING</t>
+  </si>
+  <si>
+    <t>WIRELESS NETWORK FOR MICROGRID</t>
+  </si>
+  <si>
+    <t>INTRO TO MICRO ECONOMICS</t>
+  </si>
+  <si>
+    <t>INTRO ECON: MACRO</t>
+  </si>
+  <si>
+    <t>ECON FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>EE4923</t>
+  </si>
+  <si>
+    <t>INTRO.TO BIOMEDICAL ENG.</t>
+  </si>
+  <si>
+    <t>ENGG1001</t>
+  </si>
+  <si>
+    <t>ENG PRACTICE LECTURE SERIES</t>
+  </si>
+  <si>
+    <t>ENG. TECHNICAL COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>ENGG1013</t>
+  </si>
+  <si>
+    <t>DESIGN AND COMMUNICATION</t>
+  </si>
+  <si>
+    <t>INTRO TO ENG DESIGN &amp; PROB SOL</t>
+  </si>
+  <si>
+    <t>LAW AND ETHICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>ESCI1001</t>
+  </si>
+  <si>
+    <t>EARTH:ITS ORIGIN &amp; EVOL'</t>
+  </si>
+  <si>
+    <t>ESL1301</t>
+  </si>
+  <si>
+    <t>ENGLISH SUPPORT I</t>
+  </si>
+  <si>
+    <t>ESL1302</t>
+  </si>
+  <si>
+    <t>ENGLISH SUPPORT II</t>
+  </si>
+  <si>
+    <t>ESL1303</t>
+  </si>
+  <si>
+    <t>ENGLISH SUPPORT III</t>
+  </si>
+  <si>
+    <t>FILM2022</t>
+  </si>
+  <si>
+    <t>THE ART OF FILM</t>
+  </si>
+  <si>
+    <t>FNAT2113</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO MUSIC</t>
+  </si>
+  <si>
+    <t>FR1203</t>
+  </si>
+  <si>
+    <t>COMM IN FRENCH I</t>
+  </si>
+  <si>
+    <t>PAST INTO PRESENT</t>
+  </si>
+  <si>
+    <t>HIST1305</t>
+  </si>
+  <si>
+    <t>PROHIB'N &amp; RUM-RUNNING</t>
+  </si>
+  <si>
+    <t>HIST1815</t>
+  </si>
+  <si>
+    <t>MILITARY HIST.FROM PLATO-NATO</t>
+  </si>
+  <si>
+    <t>HIST3045</t>
+  </si>
+  <si>
+    <t>HIST OF THE BALKANS, 1800-1914</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY AND SOCIETY</t>
+  </si>
+  <si>
+    <t>HISTORY OF THE LIFE SCIENCES</t>
+  </si>
+  <si>
+    <t>MATH0863</t>
+  </si>
+  <si>
+    <t>PRECALCULUS MATHEMATICS</t>
+  </si>
+  <si>
+    <t>INTROD TO CALCULUS I</t>
+  </si>
+  <si>
+    <t>INTRO TO CALCULUS II</t>
+  </si>
+  <si>
+    <t>INTRO TO LINEAR ALGEBRA</t>
+  </si>
+  <si>
+    <t>MATH1863</t>
+  </si>
+  <si>
+    <t>PRECALCULUS MATH</t>
+  </si>
+  <si>
+    <t>MULTIVARIATE CALCULUS FOR ENG.</t>
+  </si>
+  <si>
+    <t>MATH3213</t>
+  </si>
+  <si>
+    <t>LINEAR ALGEBRA II</t>
+  </si>
+  <si>
+    <t>MATH3243</t>
+  </si>
+  <si>
+    <t>COMPLEX ANALYSIS</t>
+  </si>
+  <si>
+    <t>MATH3373</t>
+  </si>
+  <si>
+    <t>INTRO TO GAME THEORY</t>
+  </si>
+  <si>
+    <t>DIFFERENTIAL EQUATIONS FOR ENG</t>
+  </si>
+  <si>
+    <t>MATH3543</t>
+  </si>
+  <si>
+    <t>DIFF GEOMETRY FOR SE</t>
+  </si>
+  <si>
+    <t>ME1312</t>
+  </si>
+  <si>
+    <t>COMPUTER AIDED DESIGN</t>
+  </si>
+  <si>
+    <t>ME2003</t>
+  </si>
+  <si>
+    <t>DYNAMICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>ME2111</t>
+  </si>
+  <si>
+    <t>MECHANICS OF MATERIALS I</t>
+  </si>
+  <si>
+    <t>ME3413</t>
+  </si>
+  <si>
+    <t>THERMODYNAMICS</t>
+  </si>
+  <si>
+    <t>ME3415</t>
+  </si>
+  <si>
+    <t>THERMODYNAMICS LABORATORY</t>
+  </si>
+  <si>
+    <t>ME5393</t>
+  </si>
+  <si>
+    <t>PRODUCT QUALITY</t>
+  </si>
+  <si>
+    <t>MUS3003</t>
+  </si>
+  <si>
+    <t>STUDIO WORK: PRIVATE LESSONS I</t>
+  </si>
+  <si>
+    <t>MUS3004</t>
+  </si>
+  <si>
+    <t>STUDIO WORK:PRIVATE LESSON II</t>
+  </si>
+  <si>
+    <t>INTRO LOGIC/REASON/CRIT THINK</t>
+  </si>
+  <si>
+    <t>CRITICAL THINKING</t>
+  </si>
+  <si>
+    <t>PHIL1201</t>
+  </si>
+  <si>
+    <t>ETHICS OF LIFE AND DEATH</t>
+  </si>
+  <si>
+    <t>PHYS1061</t>
+  </si>
+  <si>
+    <t>INTRO PHYS (PHYS SCI INTER) I</t>
+  </si>
+  <si>
+    <t>PHYS1081</t>
+  </si>
+  <si>
+    <t>FOUNDATIONS OF PHYS FOR ENGG</t>
+  </si>
+  <si>
+    <t>INTRO TO CDN POLITICS</t>
+  </si>
+  <si>
+    <t>INTRO. TO PSYCHOLOGY I</t>
+  </si>
+  <si>
+    <t>RCLP4001</t>
+  </si>
+  <si>
+    <t>THE FOUNDATIONS OF MINDFULNESS</t>
+  </si>
+  <si>
+    <t>INTROD'Y RUSSIAN I</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO KINESIOLOGY</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO SOCIOLOGY I</t>
+  </si>
+  <si>
+    <t>SOCIOLOGICAL PERSPECTIVES</t>
+  </si>
+  <si>
+    <t>CURRENT SOCIAL ISSUES</t>
+  </si>
+  <si>
+    <t>TECH &amp; SOCIAL CHANGE</t>
+  </si>
+  <si>
+    <t>INTROD'Y SPANISH I</t>
+  </si>
+  <si>
+    <t>PROB. &amp; STAT. FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>SCIENCE, TECHNOLOGY &amp; SOCIETY</t>
+  </si>
+  <si>
+    <t>MANAGING ENG &amp; IT PROJECTS</t>
+  </si>
+  <si>
+    <t>PRODUCT DESIGN &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>ADM1113, ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>ADM1213, FINANCIAL ACCOUNTING</t>
+  </si>
+  <si>
+    <t>ADM1313, PRINCIPLES OF MARKETING</t>
+  </si>
+  <si>
+    <t>ADM2513, ORGANIZATIONAL BEHAVIOUR</t>
+  </si>
+  <si>
+    <t>ADM3123, BUSINESS LAW I</t>
+  </si>
+  <si>
+    <t>AESL1011, ENGL.AS 2ND LANG.FOR ACAD.PUR</t>
+  </si>
+  <si>
+    <t>ANTH1001, INTRO SOC &amp; CULTURAL ANTH</t>
+  </si>
+  <si>
+    <t>ANTH1303, INTRO TO ANTHROP'L. ARCH'Y.</t>
+  </si>
+  <si>
+    <t>APSC1013, MECHANICS I</t>
+  </si>
+  <si>
+    <t>APSC1023, MECHANICS II</t>
+  </si>
+  <si>
+    <t>APSC1081, INTRODUCTION TO MECHANICS</t>
+  </si>
+  <si>
+    <t>APSC1082, MECHANICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>APSC1085, APPLIED SCIENCE LABORATORY</t>
+  </si>
+  <si>
+    <t>APSC2023, SURVEY 19TH &amp; 20TH C PHYSICS</t>
+  </si>
+  <si>
+    <t>APSC2023, SURVEY OF 19TH &amp; 20TH C PHYSIC</t>
+  </si>
+  <si>
+    <t>APSC2028, SURV.OF 19TH &amp; 20TH C.PHYS.LAB</t>
+  </si>
+  <si>
+    <t>APSC2028, SURVEY OF 19TH/20TH C. PHY LAB</t>
+  </si>
+  <si>
+    <t>BIOL1001, BIOL PRINCIPLES I</t>
+  </si>
+  <si>
+    <t>BIOL1105, BIOLOGICAL PRIN. I</t>
+  </si>
+  <si>
+    <t>BIOL1621, TOPICS IN BIOL. I: LIFE</t>
+  </si>
+  <si>
+    <t>CE3403, ENVIRONMENTAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>CE3963, ENGINEERING ECONOMICS</t>
+  </si>
+  <si>
+    <t>CE3963, ENGINEERING ECONOMY</t>
+  </si>
+  <si>
+    <t>CHE2501, GENERAL MATERIALS SCIENCE</t>
+  </si>
+  <si>
+    <t>CHE2506, MATERIALS SCIENCE LABORATORY</t>
+  </si>
+  <si>
+    <t>CHE5264, OIL SANDS TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>CHE5313, ENERGY AND THE ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>CHEM1001, GENERAL CHEMISTRY I</t>
+  </si>
+  <si>
+    <t>CHEM1872, GENERAL PHYSICAL &amp; INORGANIC</t>
+  </si>
+  <si>
+    <t>CHEM1877, GEN PHYSICAL &amp; INORGAINC LAB</t>
+  </si>
+  <si>
+    <t>CHEM1982, GEN CHEM/PHYSICAL &amp; INORGANIC</t>
+  </si>
+  <si>
+    <t>CHEM1982, GENERAL APPLIED CHEMISTRY</t>
+  </si>
+  <si>
+    <t>CHEM1987, GENERAL APPLIED CHEMISTRY LAB</t>
+  </si>
+  <si>
+    <t>CS1003, INTRO COMPUTER PROGRAMMING</t>
+  </si>
+  <si>
+    <t>CS1003, INTRO.TO COMPUTER PROGRM'G.</t>
+  </si>
+  <si>
+    <t>CS1023, DATA STRUCTURES &amp; ALGORITHMS</t>
+  </si>
+  <si>
+    <t>CS1073, INTRO COMP PROG IN JAVA</t>
+  </si>
+  <si>
+    <t>CS1083, COMP SC CONCEPTS/JAVA</t>
+  </si>
+  <si>
+    <t>CS2033, SOFTWARE DESIGN FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>CS3853, COMP ARCHITECTURE &amp; ORGANIZAT</t>
+  </si>
+  <si>
+    <t>ECE1813, ELECTRICITY &amp; MAGNETISM</t>
+  </si>
+  <si>
+    <t>ECE2213, DIGITAL SYSTEMS</t>
+  </si>
+  <si>
+    <t>ECE2412, SIMULATION &amp; ENG. ANALYSIS</t>
+  </si>
+  <si>
+    <t>ECE2711, ELECTRIC CIRCUITS</t>
+  </si>
+  <si>
+    <t>ECE2722, CIRCUITS AND SYSTEMS</t>
+  </si>
+  <si>
+    <t>ECE3031, ELECTRICAL &amp; CMPE ENG DESIGN</t>
+  </si>
+  <si>
+    <t>ECE3031, ELECTRICAL DESIGN</t>
+  </si>
+  <si>
+    <t>ECE3111, ELECTRONICS I</t>
+  </si>
+  <si>
+    <t>ECE3122, ELECTRONICS II</t>
+  </si>
+  <si>
+    <t>ECE3221, COMPUTER ORGANIZATION</t>
+  </si>
+  <si>
+    <t>ECE3232, EMBEDDED SYSTEMS DESIGN</t>
+  </si>
+  <si>
+    <t>ECE3242, COMPUTER ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>ECE3312, SYSTEMS AND CONTROL</t>
+  </si>
+  <si>
+    <t>ECE3511, SIGNALS</t>
+  </si>
+  <si>
+    <t>ECE3612, ELECTRIC MACHINES</t>
+  </si>
+  <si>
+    <t>ECE3612, ELECTRIC MACHINES &amp; DESIGN</t>
+  </si>
+  <si>
+    <t>ECE3812, DATA COMMUNIC'NS.&amp; NETWORKING</t>
+  </si>
+  <si>
+    <t>ECE3821, ELECTROMAGNETICS I</t>
+  </si>
+  <si>
+    <t>ECE3832, ELECTROMAGNETICS II</t>
+  </si>
+  <si>
+    <t>ECE4040, ELECT &amp; CMPE DESIGN PROJECT</t>
+  </si>
+  <si>
+    <t>ECE4040, MULTIDISCIPLINARY DESIGN PROJ</t>
+  </si>
+  <si>
+    <t>ECE4040, PRODUCT DESIGN &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>ECE4133, INSTRUMENTATION DESIGN</t>
+  </si>
+  <si>
+    <t>ECE4251, REAL TIME SYSTEMS</t>
+  </si>
+  <si>
+    <t>ECE4261, DIGITAL SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>ECE4273, VLSI SYSTEMS DESIGN</t>
+  </si>
+  <si>
+    <t>ECE4333, ROBOTICS</t>
+  </si>
+  <si>
+    <t>ECE4433, SAFETY-CRITICAL SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>ECE4523, COMMUNICATIONS SYSTEMS</t>
+  </si>
+  <si>
+    <t>ECE4531, DIGITAL SIGNAL PROCESSING I</t>
+  </si>
+  <si>
+    <t>ECE4633, POWER SYSTEM ANALYSIS</t>
+  </si>
+  <si>
+    <t>ECE4643, POWER ELECTRONICS</t>
+  </si>
+  <si>
+    <t>ECE4823, COMM'NS.NETWORK ENGINEERING</t>
+  </si>
+  <si>
+    <t>ECE4833, MICROWAVE ENGINEERING</t>
+  </si>
+  <si>
+    <t>ECE4913, WIRELESS NETWORK FOR MICROGRID</t>
+  </si>
+  <si>
+    <t>ECECOOP, ECE WORK TERM</t>
+  </si>
+  <si>
+    <t>ECON1013, INTRO TO ECON: MICRO</t>
+  </si>
+  <si>
+    <t>ECON1013, INTRO TO MICRO ECONOMICS</t>
+  </si>
+  <si>
+    <t>ECON1013, PRINCIPLES OF MICROECONOMICS</t>
+  </si>
+  <si>
+    <t>ECON1023, INTRO ECON: MACRO</t>
+  </si>
+  <si>
+    <t>ECON1023, INTRO TO MACRO ECONOMICS</t>
+  </si>
+  <si>
+    <t>ECON1073, ECON FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>ECON1073, ECONOMICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>EE4923, INTRO.TO BIOMEDICAL ENG.</t>
+  </si>
+  <si>
+    <t>EE6463, POWER SYSTEM DYNAMICS</t>
+  </si>
+  <si>
+    <t>EE6653, POWER ELECTRONICS</t>
+  </si>
+  <si>
+    <t>ENGG1001, ENG PRACTICE LECTURE SERIES</t>
+  </si>
+  <si>
+    <t>ENGG1003, ENG. TECHNICAL COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>ENGG1013, DESIGN AND COMMUNICATION</t>
+  </si>
+  <si>
+    <t>ENGG1015, INTRO TO ENG DESIGN &amp; PROB SOL</t>
+  </si>
+  <si>
+    <t>ENGG1082, MECHANICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>ENGG4013, LAW AND ETHICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>ESCI1001, EARTH:ITS ORIGIN &amp; EVOL'</t>
+  </si>
+  <si>
+    <t>ESL1301, ENGLISH SUPPORT I</t>
+  </si>
+  <si>
+    <t>ESL1302, ENGLISH SUPPORT II</t>
+  </si>
+  <si>
+    <t>ESL1303, ENGLISH SUPPORT III</t>
+  </si>
+  <si>
+    <t>FILM2022, THE ART OF FILM</t>
+  </si>
+  <si>
+    <t>FNAT2113, INTRODUCTION TO MUSIC</t>
+  </si>
+  <si>
+    <t>FR1203, COMM IN FRENCH I</t>
+  </si>
+  <si>
+    <t>HIST1001, PAST INTO PRESENT</t>
+  </si>
+  <si>
+    <t>HIST1305, PROHIB'N &amp; RUM-RUNNING</t>
+  </si>
+  <si>
+    <t>HIST1815, MILITARY HIST.FROM PLATO-NATO</t>
+  </si>
+  <si>
+    <t>HIST3045, HIST OF THE BALKANS, 1800-1914</t>
+  </si>
+  <si>
+    <t>HIST3925, TECHNOLOGY AND SOCIETY</t>
+  </si>
+  <si>
+    <t>HIST3975, HISTORY OF THE LIFE SCIENCES</t>
+  </si>
+  <si>
+    <t>MATH0863, PRECALCULUS MATHEMATICS</t>
+  </si>
+  <si>
+    <t>MATH1003, INTRO TO CALC I</t>
+  </si>
+  <si>
+    <t>MATH1003, INTRO TO CALCULUS I</t>
+  </si>
+  <si>
+    <t>MATH1003, INTROD TO CALCULUS I</t>
+  </si>
+  <si>
+    <t>MATH1013, INTRO CALC II</t>
+  </si>
+  <si>
+    <t>MATH1013, INTRO TO CALCULUS II</t>
+  </si>
+  <si>
+    <t>MATH1503, INTRO TO LINEAR ALGEBRA</t>
+  </si>
+  <si>
+    <t>MATH1503, INTRODUC.TO LINEAR ALGEBRA</t>
+  </si>
+  <si>
+    <t>MATH1863, PRECALCULUS MATH</t>
+  </si>
+  <si>
+    <t>MATH2513, MULTIVARIABLE CALC.FOR ENG.</t>
+  </si>
+  <si>
+    <t>MATH2513, MULTIVARIATE CALCULUS FOR ENG.</t>
+  </si>
+  <si>
+    <t>MATH3213, LINEAR ALGEBRA II</t>
+  </si>
+  <si>
+    <t>MATH3243, COMPLEX ANALYSIS</t>
+  </si>
+  <si>
+    <t>MATH3373, INTRO TO GAME THEORY</t>
+  </si>
+  <si>
+    <t>MATH3503, DIFF EQUATIONS FOR ENG</t>
+  </si>
+  <si>
+    <t>MATH3503, DIFF EQUATS FOR ENG</t>
+  </si>
+  <si>
+    <t>MATH3503, DIFFERENTIAL EQUATIONS FOR ENG</t>
+  </si>
+  <si>
+    <t>MATH3543, DIFF GEOMETRY FOR SE</t>
+  </si>
+  <si>
+    <t>ME1312, COMPUTER AIDED DESIGN</t>
+  </si>
+  <si>
+    <t>ME2003, DYNAMICS FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>ME2111, MECHANICS OF MATERIALS I</t>
+  </si>
+  <si>
+    <t>ME3413, THERMODYNAMICS</t>
+  </si>
+  <si>
+    <t>ME3415, THERMODYNAMICS LABORATORY</t>
+  </si>
+  <si>
+    <t>ME5393, PRODUCT QUALITY</t>
+  </si>
+  <si>
+    <t>MECOOP, ME WORK TERM</t>
+  </si>
+  <si>
+    <t>MUS3003, STUDIO WORK: PRIVATE LESSONS I</t>
+  </si>
+  <si>
+    <t>MUS3004, STUDIO WORK:PRIVATE LESSON II</t>
+  </si>
+  <si>
+    <t>PHIL1053, INTRO LOGIC/REASON/CRIT THINK</t>
+  </si>
+  <si>
+    <t>PHIL1101, CRITICAL THINKING</t>
+  </si>
+  <si>
+    <t>PHIL1201, ETHICS OF LIFE AND DEATH</t>
+  </si>
+  <si>
+    <t>PHYS1061, INTRO PHYS (PHYS SCI INTER) I</t>
+  </si>
+  <si>
+    <t>PHYS1081, FOUNDATIONS OF PHYS FOR ENGG</t>
+  </si>
+  <si>
+    <t>POLS1201, INTRO TO CDN POLITICS</t>
+  </si>
+  <si>
+    <t>PSYC1013, INTRO. TO PSYCHOLOGY I</t>
+  </si>
+  <si>
+    <t>RCLP4001, THE FOUNDATIONS OF MINDFULNESS</t>
+  </si>
+  <si>
+    <t>RUSS1013, INTROD'Y RUSSIAN I</t>
+  </si>
+  <si>
+    <t>SEP1001, INTRODUCTION TO KINESIOLOGY</t>
+  </si>
+  <si>
+    <t>SOCI1001, INTRODUCTION TO SOCIOLOGY I</t>
+  </si>
+  <si>
+    <t>SOCI1503, SOCIOLOGICAL PERSPECTIVES</t>
+  </si>
+  <si>
+    <t>SOCI1583, CURRENT SOCIAL ISSUES</t>
+  </si>
+  <si>
+    <t>SOCI2534, TECH &amp; SOCIAL CHANGE</t>
+  </si>
+  <si>
+    <t>SPAN1203, INTROD'Y SPANISH I</t>
+  </si>
+  <si>
+    <t>STAT2593, PROB &amp; STAT FOR ENG</t>
+  </si>
+  <si>
+    <t>STAT2593, PROB STATS FOR ENGIN</t>
+  </si>
+  <si>
+    <t>STAT2593, PROB. &amp; STAT. FOR ENGINEERS</t>
+  </si>
+  <si>
+    <t>STS1003, SCIENCE, TECHNOLOGY &amp; SOCIETY</t>
+  </si>
+  <si>
+    <t>STS1003, SCIENCE, TECHNOLOGY AND SOCIET</t>
+  </si>
+  <si>
+    <t>TME3313, MANAGING ENG &amp; IT PROJECTS</t>
+  </si>
+  <si>
+    <t>TME5025, PRODUCT DESIGN &amp; DEVELOPMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,10 +2013,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55C8CE-CE06-41D0-B4A9-399253C8201D}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection sqref="A1:AH5"/>
     </sheetView>
   </sheetViews>
@@ -1204,19 +2264,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D48F23-5C44-46AA-AF16-30AD44B88909}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,4 +2919,3856 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>283.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>298</v>
+      </c>
+      <c r="B74" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>302</v>
+      </c>
+      <c r="B78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>306</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>322</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>324</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>325</v>
+      </c>
+      <c r="B91" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" t="s">
+        <v>341</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" t="s">
+        <v>343</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" t="s">
+        <v>345</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>352</v>
+      </c>
+      <c r="B107" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>356</v>
+      </c>
+      <c r="B109" t="s">
+        <v>357</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>358</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" t="s">
+        <v>359</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>360</v>
+      </c>
+      <c r="B112" t="s">
+        <v>361</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" t="s">
+        <v>363</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>367</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>368</v>
+      </c>
+      <c r="B117" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>370</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
+        <v>373</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" t="s">
+        <v>374</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" t="s">
+        <v>375</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" t="s">
+        <v>376</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" t="s">
+        <v>377</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" t="s">
+        <v>378</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" t="s">
+        <v>379</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>